--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20232024.xlsx
@@ -75984,7 +75984,7 @@
         <v>2.96</v>
       </c>
       <c r="AU360">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV360">
         <v>3</v>
@@ -75996,7 +75996,7 @@
         <v>6</v>
       </c>
       <c r="AY360">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ360">
         <v>9</v>
@@ -76193,19 +76193,19 @@
         <v>8</v>
       </c>
       <c r="AV361">
+        <v>8</v>
+      </c>
+      <c r="AW361">
+        <v>2</v>
+      </c>
+      <c r="AX361">
         <v>4</v>
       </c>
-      <c r="AW361">
-        <v>3</v>
-      </c>
-      <c r="AX361">
-        <v>3</v>
-      </c>
       <c r="AY361">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ361">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA361">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eerste Divisie_20232024.xlsx
@@ -76429,22 +76429,22 @@
         <v>2.75</v>
       </c>
       <c r="AU362">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV362">
+        <v>4</v>
+      </c>
+      <c r="AW362">
+        <v>0</v>
+      </c>
+      <c r="AX362">
         <v>3</v>
       </c>
-      <c r="AW362">
-        <v>0</v>
-      </c>
-      <c r="AX362">
-        <v>2</v>
-      </c>
       <c r="AY362">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ362">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA362">
         <v>5</v>
@@ -76635,22 +76635,22 @@
         <v>3.52</v>
       </c>
       <c r="AU363">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW363">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY363">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA363">
         <v>3</v>
@@ -76841,22 +76841,22 @@
         <v>3.02</v>
       </c>
       <c r="AU364">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV364">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW364">
         <v>5</v>
       </c>
       <c r="AX364">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY364">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ364">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA364">
         <v>7</v>
@@ -77047,22 +77047,22 @@
         <v>2.91</v>
       </c>
       <c r="AU365">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV365">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW365">
         <v>1</v>
       </c>
       <c r="AX365">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY365">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ365">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA365">
         <v>7</v>
@@ -77256,7 +77256,7 @@
         <v>3</v>
       </c>
       <c r="AV366">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW366">
         <v>3</v>
@@ -77268,7 +77268,7 @@
         <v>6</v>
       </c>
       <c r="AZ366">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA366">
         <v>5</v>
@@ -77459,22 +77459,22 @@
         <v>2.97</v>
       </c>
       <c r="AU367">
+        <v>10</v>
+      </c>
+      <c r="AV367">
         <v>6</v>
       </c>
-      <c r="AV367">
-        <v>2</v>
-      </c>
       <c r="AW367">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY367">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ367">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA367">
         <v>5</v>
@@ -77665,22 +77665,22 @@
         <v>3.38</v>
       </c>
       <c r="AU368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV368">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW368">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX368">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY368">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ368">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA368">
         <v>3</v>
@@ -77874,28 +77874,28 @@
         <v>6</v>
       </c>
       <c r="AV369">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW369">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX369">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY369">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ369">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA369">
         <v>11</v>
       </c>
       <c r="BB369">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC369">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD369">
         <v>2.03</v>
@@ -78077,22 +78077,22 @@
         <v>3.13</v>
       </c>
       <c r="AU370">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV370">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW370">
         <v>5</v>
       </c>
       <c r="AX370">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY370">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ370">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA370">
         <v>5</v>
@@ -78283,10 +78283,10 @@
         <v>3.24</v>
       </c>
       <c r="AU371">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV371">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW371">
         <v>6</v>
@@ -78295,10 +78295,10 @@
         <v>6</v>
       </c>
       <c r="AY371">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ371">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA371">
         <v>4</v>
